--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/1.0简易合同模板（新）.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/1.0简易合同模板（新）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11120"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,28 +62,6 @@
   </si>
   <si>
     <r>
-      <t>合计（含16%增值税专用发票）小写：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lowercasePrice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           （大写）capitalizedPrice  </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>质量标准: 出卖人保证提供的货物皆为符合</t>
     </r>
     <r>
@@ -339,9 +317,6 @@
     <t>出卖人：sellerBuyer</t>
   </si>
   <si>
-    <t xml:space="preserve">受人：sellerBuyer  </t>
-  </si>
-  <si>
     <t>地址：address</t>
   </si>
   <si>
@@ -371,6 +346,36 @@
   </si>
   <si>
     <t>合同编号: purchContractNo             签订地点：signingPlace              签订日期: year年month月day日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">买受人：sellerBuyer  </t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合计（含16%增值税专用发票）小写：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lowercasePrice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">               （大写）capitalizedPrice  </t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +384,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -566,7 +571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,53 +580,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,7 +933,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -938,9 +943,9 @@
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
     <col min="12" max="256" width="9" style="1"/>
@@ -1640,28 +1645,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1693,163 +1698,163 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1857,13 +1862,13 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1871,13 +1876,13 @@
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1885,13 +1890,13 @@
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1899,13 +1904,13 @@
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1913,26 +1918,26 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="E20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
@@ -1940,6 +1945,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="E20:H20"/>
@@ -1948,11 +1958,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
